--- a/Lacex_summary_101119_recover_old_try5.xlsx
+++ b/Lacex_summary_101119_recover_old_try5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A208342-CC3D-414F-A47B-86F8AE784AEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511AEDDA-181E-43DA-B280-4AEC187531B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{EF099DB7-CA69-403B-B5B4-836BC4D8557D}"/>
   </bookViews>
